--- a/R_analytics/LIME_fisheries/LFQ data.xlsx
+++ b/R_analytics/LIME_fisheries/LFQ data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD68114-DA8E-0A4F-992E-C8E15503B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2461F-0257-664C-AF38-FBF194A51FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>5.1.2018</t>
   </si>
@@ -61,10 +61,7 @@
     <t>Catch</t>
   </si>
   <si>
-    <t>Lengthclass (mm)</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -382,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -394,7 +391,7 @@
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -437,13 +434,10 @@
       <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -484,14 +478,10 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <f>SUM(C2:N2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -532,14 +522,10 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O14" si="0">SUM(C3:N3)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>132</v>
@@ -580,14 +566,10 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>930</v>
@@ -628,14 +610,10 @@
       <c r="N5">
         <v>28</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1867</v>
@@ -676,14 +654,10 @@
       <c r="N6">
         <v>96</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1476</v>
@@ -724,14 +698,10 @@
       <c r="N7">
         <v>83</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>799</v>
@@ -772,14 +742,10 @@
       <c r="N8">
         <v>42</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>129</v>
@@ -820,14 +786,10 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -868,14 +830,10 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -916,14 +874,10 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -964,14 +918,10 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1012,14 +962,10 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1059,10 +1005,6 @@
       </c>
       <c r="N14">
         <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/R_analytics/LIME_fisheries/LFQ data.xlsx
+++ b/R_analytics/LIME_fisheries/LFQ data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2461F-0257-664C-AF38-FBF194A51FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F55FF1C-5E43-084F-83E7-129E1265B36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>Catch</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>LengthClass</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>132</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>930</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1867</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1476</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>799</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>129</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>3</v>
